--- a/Resource/excel/display.xlsx
+++ b/Resource/excel/display.xlsx
@@ -1,16 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Work\Server\Resource\excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="14070" tabRatio="552"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="14070" tabRatio="552"/>
   </bookViews>
   <sheets>
     <sheet name="enter" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">enter!$F$1:$F$185</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">enter!$F$1:$F$188</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
   <calcPr calcId="144525" concurrentCalc="0"/>
@@ -24,7 +29,7 @@
     <author>刘小兵</author>
   </authors>
   <commentList>
-    <comment ref="F1" authorId="0">
+    <comment ref="F1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -37,7 +42,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D2" authorId="1">
+    <comment ref="D2" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -60,7 +65,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E2" authorId="1">
+    <comment ref="E2" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -103,7 +108,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="743" uniqueCount="554">
   <si>
     <t>Name</t>
   </si>
@@ -299,7 +304,7 @@
         <sz val="11"/>
         <color rgb="FF608B4E"/>
         <rFont val="Consolas"/>
-        <charset val="134"/>
+        <family val="3"/>
       </rPr>
       <t>token</t>
     </r>
@@ -451,7 +456,7 @@
         <sz val="11"/>
         <color rgb="FF608B4E"/>
         <rFont val="Consolas"/>
-        <charset val="134"/>
+        <family val="3"/>
       </rPr>
       <t>:</t>
     </r>
@@ -525,7 +530,7 @@
         <sz val="11"/>
         <color rgb="FF608B4E"/>
         <rFont val="Consolas"/>
-        <charset val="134"/>
+        <family val="3"/>
       </rPr>
       <t xml:space="preserve">, </t>
     </r>
@@ -554,7 +559,7 @@
         <sz val="11"/>
         <color rgb="FF608B4E"/>
         <rFont val="Consolas"/>
-        <charset val="134"/>
+        <family val="3"/>
       </rPr>
       <t xml:space="preserve">, </t>
     </r>
@@ -999,7 +1004,7 @@
         <sz val="11"/>
         <color rgb="FF608B4E"/>
         <rFont val="Consolas"/>
-        <charset val="134"/>
+        <family val="3"/>
       </rPr>
       <t>,</t>
     </r>
@@ -1052,7 +1057,7 @@
         <sz val="11"/>
         <color rgb="FF608B4E"/>
         <rFont val="Consolas"/>
-        <charset val="134"/>
+        <family val="3"/>
       </rPr>
       <t>%s</t>
     </r>
@@ -1096,7 +1101,7 @@
         <sz val="11"/>
         <color rgb="FF608B4E"/>
         <rFont val="Consolas"/>
-        <charset val="134"/>
+        <family val="3"/>
       </rPr>
       <t>&lt;SGText/&gt;&lt;SGText&gt;%s&lt;SGText/&gt;&lt;SGText&gt;</t>
     </r>
@@ -1114,7 +1119,7 @@
         <sz val="11"/>
         <color rgb="FF608B4E"/>
         <rFont val="Consolas"/>
-        <charset val="134"/>
+        <family val="3"/>
       </rPr>
       <t>&lt;SGText/&gt;</t>
     </r>
@@ -1134,7 +1139,7 @@
         <sz val="11"/>
         <color rgb="FF608B4E"/>
         <rFont val="Consolas"/>
-        <charset val="134"/>
+        <family val="3"/>
       </rPr>
       <t>%s</t>
     </r>
@@ -1223,7 +1228,7 @@
         <sz val="11"/>
         <color rgb="FF608B4E"/>
         <rFont val="Consolas"/>
-        <charset val="134"/>
+        <family val="3"/>
       </rPr>
       <t>&lt;SGText/&gt;&lt;SGText&gt;%s&lt;SGText/&gt;&lt;SGText&gt;</t>
     </r>
@@ -1241,7 +1246,7 @@
         <sz val="11"/>
         <color rgb="FF608B4E"/>
         <rFont val="Consolas"/>
-        <charset val="134"/>
+        <family val="3"/>
       </rPr>
       <t>&lt;SGText/&gt;</t>
     </r>
@@ -1261,7 +1266,7 @@
         <sz val="11"/>
         <color rgb="FF608B4E"/>
         <rFont val="Consolas"/>
-        <charset val="134"/>
+        <family val="3"/>
       </rPr>
       <t>%s</t>
     </r>
@@ -1314,7 +1319,7 @@
         <sz val="11"/>
         <color rgb="FF608B4E"/>
         <rFont val="Consolas"/>
-        <charset val="134"/>
+        <family val="3"/>
       </rPr>
       <t xml:space="preserve">, </t>
     </r>
@@ -1421,7 +1426,7 @@
         <sz val="11"/>
         <color rgb="FF608B4E"/>
         <rFont val="Consolas"/>
-        <charset val="134"/>
+        <family val="3"/>
       </rPr>
       <t>&lt;SGText/&gt;&lt;SGText&gt;%s&lt;SGText/&gt;&lt;SGText&gt;</t>
     </r>
@@ -1439,7 +1444,7 @@
         <sz val="11"/>
         <color rgb="FF608B4E"/>
         <rFont val="Consolas"/>
-        <charset val="134"/>
+        <family val="3"/>
       </rPr>
       <t>&lt;SGText/&gt;</t>
     </r>
@@ -1459,7 +1464,7 @@
         <sz val="11"/>
         <color rgb="FF608B4E"/>
         <rFont val="Consolas"/>
-        <charset val="134"/>
+        <family val="3"/>
       </rPr>
       <t>%s</t>
     </r>
@@ -1661,7 +1666,7 @@
         <sz val="11"/>
         <color rgb="FF608B4E"/>
         <rFont val="Consolas"/>
-        <charset val="134"/>
+        <family val="3"/>
       </rPr>
       <t>&lt;SGText/&gt;&lt;SGText&gt;%s&lt;SGText/&gt;&lt;SGText&gt;</t>
     </r>
@@ -1690,7 +1695,7 @@
         <sz val="11"/>
         <color rgb="FF608B4E"/>
         <rFont val="Consolas"/>
-        <charset val="134"/>
+        <family val="3"/>
       </rPr>
       <t>%s</t>
     </r>
@@ -1761,7 +1766,7 @@
         <sz val="11"/>
         <color rgb="FF608B4E"/>
         <rFont val="Consolas"/>
-        <charset val="134"/>
+        <family val="3"/>
       </rPr>
       <t>&lt;SGText/&gt;</t>
     </r>
@@ -1781,7 +1786,7 @@
         <sz val="11"/>
         <color rgb="FF608B4E"/>
         <rFont val="Consolas"/>
-        <charset val="134"/>
+        <family val="3"/>
       </rPr>
       <t>|</t>
     </r>
@@ -1799,7 +1804,7 @@
         <sz val="11"/>
         <color rgb="FF608B4E"/>
         <rFont val="Consolas"/>
-        <charset val="134"/>
+        <family val="3"/>
       </rPr>
       <t>:%s</t>
     </r>
@@ -1834,7 +1839,7 @@
         <sz val="11"/>
         <color rgb="FF608B4E"/>
         <rFont val="Consolas"/>
-        <charset val="134"/>
+        <family val="3"/>
       </rPr>
       <t>&lt;SGText/&gt;</t>
     </r>
@@ -1854,7 +1859,7 @@
         <sz val="11"/>
         <color rgb="FF608B4E"/>
         <rFont val="Consolas"/>
-        <charset val="134"/>
+        <family val="3"/>
       </rPr>
       <t>%s</t>
     </r>
@@ -1889,7 +1894,7 @@
         <sz val="11"/>
         <color rgb="FF608B4E"/>
         <rFont val="Consolas"/>
-        <charset val="134"/>
+        <family val="3"/>
       </rPr>
       <t>&lt;SGText/&gt;</t>
     </r>
@@ -1909,7 +1914,7 @@
         <sz val="11"/>
         <color rgb="FF608B4E"/>
         <rFont val="Consolas"/>
-        <charset val="134"/>
+        <family val="3"/>
       </rPr>
       <t>%s</t>
     </r>
@@ -1944,7 +1949,7 @@
         <sz val="11"/>
         <color rgb="FF608B4E"/>
         <rFont val="Consolas"/>
-        <charset val="134"/>
+        <family val="3"/>
       </rPr>
       <t>%s</t>
     </r>
@@ -1962,7 +1967,7 @@
         <sz val="11"/>
         <color rgb="FF608B4E"/>
         <rFont val="Consolas"/>
-        <charset val="134"/>
+        <family val="3"/>
       </rPr>
       <t>!</t>
     </r>
@@ -1994,7 +1999,7 @@
         <sz val="11"/>
         <color rgb="FF608B4E"/>
         <rFont val="Consolas"/>
-        <charset val="134"/>
+        <family val="3"/>
       </rPr>
       <t>%s</t>
     </r>
@@ -2012,7 +2017,7 @@
         <sz val="11"/>
         <color rgb="FF608B4E"/>
         <rFont val="Consolas"/>
-        <charset val="134"/>
+        <family val="3"/>
       </rPr>
       <t>!</t>
     </r>
@@ -2062,7 +2067,7 @@
         <sz val="11"/>
         <color rgb="FF608B4E"/>
         <rFont val="Consolas"/>
-        <charset val="134"/>
+        <family val="3"/>
       </rPr>
       <t xml:space="preserve">, </t>
     </r>
@@ -2091,7 +2096,7 @@
         <sz val="11"/>
         <color rgb="FF608B4E"/>
         <rFont val="Consolas"/>
-        <charset val="134"/>
+        <family val="3"/>
       </rPr>
       <t xml:space="preserve">, </t>
     </r>
@@ -2126,7 +2131,7 @@
         <sz val="11"/>
         <color rgb="FF608B4E"/>
         <rFont val="Consolas"/>
-        <charset val="134"/>
+        <family val="3"/>
       </rPr>
       <t>&lt;SGText/&gt;</t>
     </r>
@@ -2146,7 +2151,7 @@
         <sz val="11"/>
         <color rgb="FF608B4E"/>
         <rFont val="Consolas"/>
-        <charset val="134"/>
+        <family val="3"/>
       </rPr>
       <t>%s</t>
     </r>
@@ -2190,7 +2195,7 @@
         <sz val="11"/>
         <color rgb="FF608B4E"/>
         <rFont val="Consolas"/>
-        <charset val="134"/>
+        <family val="3"/>
       </rPr>
       <t>&lt;SGText/&gt;</t>
     </r>
@@ -2210,7 +2215,7 @@
         <sz val="11"/>
         <color rgb="FF608B4E"/>
         <rFont val="Consolas"/>
-        <charset val="134"/>
+        <family val="3"/>
       </rPr>
       <t>%s</t>
     </r>
@@ -2596,19 +2601,33 @@
   </si>
   <si>
     <t>匹配|已取消准备</t>
+  </si>
+  <si>
+    <t>DataNotEnough</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>没有足够的数据</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>合成配置不存在</t>
+  </si>
+  <si>
+    <t>登录已经关闭</t>
+  </si>
+  <si>
+    <t>CompoundNotExist</t>
+  </si>
+  <si>
+    <t>LoginIsClose</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="31">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -2631,13 +2650,13 @@
       <sz val="11"/>
       <color rgb="FFD4D4D4"/>
       <name val="Consolas"/>
-      <charset val="134"/>
+      <family val="3"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF608B4E"/>
       <name val="Consolas"/>
-      <charset val="134"/>
+      <family val="3"/>
     </font>
     <font>
       <sz val="11"/>
@@ -2688,147 +2707,28 @@
       <sz val="11"/>
       <color rgb="FFB5CEA8"/>
       <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF608B4E"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="37">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2865,188 +2765,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -3069,255 +2789,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="33" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3399,7 +2880,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="31" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
@@ -3423,7 +2904,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="31" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3435,62 +2916,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="好" xfId="1" builtinId="26"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
       <font>
-        <b val="1"/>
+        <b/>
       </font>
       <fill>
         <patternFill patternType="solid">
@@ -3512,12 +2949,15 @@
   </tableStyles>
   <colors>
     <mruColors>
-      <color rgb="0005FF6F"/>
+      <color rgb="FF05FF6F"/>
     </mruColors>
   </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -3846,21 +3286,20 @@
       <a:lstStyle/>
     </a:spDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="B1:N185"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:N188"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A139" activePane="bottomLeft" state="frozen"/>
-      <selection/>
-      <selection pane="bottomLeft" activeCell="E139" sqref="E139"/>
+      <pane ySplit="3" topLeftCell="A121" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B158" sqref="B158"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="22.875" style="5" customWidth="1"/>
     <col min="2" max="2" width="52.25" style="6" customWidth="1"/>
@@ -3884,7 +3323,7 @@
     <col min="21" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="2:14">
+    <row r="1" spans="2:14" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B1" s="7" t="s">
         <v>0</v>
       </c>
@@ -3913,7 +3352,7 @@
       <c r="M1" s="4"/>
       <c r="N1" s="4"/>
     </row>
-    <row r="2" s="2" customFormat="1" spans="2:14">
+    <row r="2" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B2" s="8" t="s">
         <v>7</v>
       </c>
@@ -3937,7 +3376,7 @@
       <c r="M2" s="19"/>
       <c r="N2" s="19"/>
     </row>
-    <row r="3" s="3" customFormat="1" spans="2:14">
+    <row r="3" spans="2:14" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B3" s="9"/>
       <c r="E3" s="9"/>
       <c r="H3" s="10"/>
@@ -3948,7 +3387,7 @@
       <c r="M3" s="10"/>
       <c r="N3" s="10"/>
     </row>
-    <row r="4" spans="2:7">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B4" s="11" t="s">
         <v>12</v>
       </c>
@@ -3968,7 +3407,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="2:7">
+    <row r="5" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B5" s="11" t="s">
         <v>16</v>
       </c>
@@ -3988,7 +3427,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="2:7">
+    <row r="6" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B6" s="11" t="s">
         <v>19</v>
       </c>
@@ -4008,7 +3447,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="2:7">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B7" s="11" t="s">
         <v>22</v>
       </c>
@@ -4028,7 +3467,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="2:7">
+    <row r="8" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B8" s="12" t="s">
         <v>25</v>
       </c>
@@ -4048,7 +3487,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="2:7">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B9" s="12" t="s">
         <v>28</v>
       </c>
@@ -4068,7 +3507,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="2:7">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B10" s="12" t="s">
         <v>31</v>
       </c>
@@ -4088,7 +3527,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="2:7">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B11" s="12" t="s">
         <v>34</v>
       </c>
@@ -4108,7 +3547,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="2:7">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B12" s="11" t="s">
         <v>37</v>
       </c>
@@ -4128,7 +3567,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="2:7">
+    <row r="13" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B13" s="12" t="s">
         <v>40</v>
       </c>
@@ -4148,7 +3587,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="2:7">
+    <row r="14" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B14" s="12" t="s">
         <v>43</v>
       </c>
@@ -4168,7 +3607,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="2:7">
+    <row r="15" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B15" s="12" t="s">
         <v>46</v>
       </c>
@@ -4188,7 +3627,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="2:7">
+    <row r="16" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B16" s="12" t="s">
         <v>49</v>
       </c>
@@ -4208,7 +3647,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" ht="15" spans="2:7">
+    <row r="17" spans="2:8" ht="15" x14ac:dyDescent="0.15">
       <c r="B17" s="13" t="s">
         <v>52</v>
       </c>
@@ -4228,7 +3667,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" ht="15" spans="2:7">
+    <row r="18" spans="2:8" ht="15" x14ac:dyDescent="0.15">
       <c r="B18" s="13" t="s">
         <v>55</v>
       </c>
@@ -4248,7 +3687,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" ht="15" spans="2:7">
+    <row r="19" spans="2:8" ht="15" x14ac:dyDescent="0.15">
       <c r="B19" s="13" t="s">
         <v>58</v>
       </c>
@@ -4268,7 +3707,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" ht="15" spans="2:7">
+    <row r="20" spans="2:8" ht="15" x14ac:dyDescent="0.15">
       <c r="B20" s="13" t="s">
         <v>61</v>
       </c>
@@ -4288,7 +3727,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" ht="15" spans="2:7">
+    <row r="21" spans="2:8" ht="15" x14ac:dyDescent="0.15">
       <c r="B21" s="13" t="s">
         <v>64</v>
       </c>
@@ -4308,7 +3747,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" ht="15" spans="2:7">
+    <row r="22" spans="2:8" ht="15" x14ac:dyDescent="0.15">
       <c r="B22" s="13" t="s">
         <v>67</v>
       </c>
@@ -4328,7 +3767,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" ht="15" spans="2:7">
+    <row r="23" spans="2:8" ht="15" x14ac:dyDescent="0.15">
       <c r="B23" s="13" t="s">
         <v>70</v>
       </c>
@@ -4348,7 +3787,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" ht="15" spans="2:7">
+    <row r="24" spans="2:8" ht="15" x14ac:dyDescent="0.15">
       <c r="B24" s="13" t="s">
         <v>73</v>
       </c>
@@ -4368,7 +3807,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" ht="15" spans="2:7">
+    <row r="25" spans="2:8" ht="15" x14ac:dyDescent="0.15">
       <c r="B25" s="13" t="s">
         <v>76</v>
       </c>
@@ -4388,7 +3827,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" ht="15" spans="2:8">
+    <row r="26" spans="2:8" ht="15" x14ac:dyDescent="0.15">
       <c r="B26" s="13" t="s">
         <v>79</v>
       </c>
@@ -4409,7 +3848,7 @@
       </c>
       <c r="H26" s="6"/>
     </row>
-    <row r="27" ht="15" spans="2:7">
+    <row r="27" spans="2:8" ht="15" x14ac:dyDescent="0.15">
       <c r="B27" s="13" t="s">
         <v>82</v>
       </c>
@@ -4429,7 +3868,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" ht="15" spans="2:7">
+    <row r="28" spans="2:8" ht="15" x14ac:dyDescent="0.15">
       <c r="B28" s="13" t="s">
         <v>85</v>
       </c>
@@ -4449,7 +3888,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" ht="15" spans="2:7">
+    <row r="29" spans="2:8" ht="15" x14ac:dyDescent="0.15">
       <c r="B29" s="13" t="s">
         <v>88</v>
       </c>
@@ -4469,7 +3908,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" ht="15" spans="2:7">
+    <row r="30" spans="2:8" ht="15" x14ac:dyDescent="0.15">
       <c r="B30" s="13" t="s">
         <v>91</v>
       </c>
@@ -4489,7 +3928,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" ht="15" spans="2:7">
+    <row r="31" spans="2:8" ht="15" x14ac:dyDescent="0.15">
       <c r="B31" s="13" t="s">
         <v>94</v>
       </c>
@@ -4509,7 +3948,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" ht="15" spans="2:7">
+    <row r="32" spans="2:8" ht="15" x14ac:dyDescent="0.15">
       <c r="B32" s="13" t="s">
         <v>97</v>
       </c>
@@ -4529,7 +3968,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" ht="15" spans="2:7">
+    <row r="33" spans="2:7" ht="15" x14ac:dyDescent="0.15">
       <c r="B33" s="13" t="s">
         <v>100</v>
       </c>
@@ -4549,7 +3988,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" ht="15" spans="2:7">
+    <row r="34" spans="2:7" ht="15" x14ac:dyDescent="0.15">
       <c r="B34" s="13" t="s">
         <v>103</v>
       </c>
@@ -4569,7 +4008,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" ht="15" spans="2:7">
+    <row r="35" spans="2:7" ht="15" x14ac:dyDescent="0.15">
       <c r="B35" s="13" t="s">
         <v>106</v>
       </c>
@@ -4589,7 +4028,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" ht="15" spans="2:7">
+    <row r="36" spans="2:7" ht="15" x14ac:dyDescent="0.15">
       <c r="B36" s="13" t="s">
         <v>109</v>
       </c>
@@ -4609,7 +4048,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="37" ht="15" spans="2:7">
+    <row r="37" spans="2:7" ht="15" x14ac:dyDescent="0.15">
       <c r="B37" s="13" t="s">
         <v>111</v>
       </c>
@@ -4629,7 +4068,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" ht="15" spans="2:7">
+    <row r="38" spans="2:7" ht="15" x14ac:dyDescent="0.15">
       <c r="B38" s="13" t="s">
         <v>114</v>
       </c>
@@ -4649,7 +4088,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="39" ht="15" spans="2:7">
+    <row r="39" spans="2:7" ht="15" x14ac:dyDescent="0.15">
       <c r="B39" s="13" t="s">
         <v>117</v>
       </c>
@@ -4669,7 +4108,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="40" ht="15" spans="2:7">
+    <row r="40" spans="2:7" ht="15" x14ac:dyDescent="0.15">
       <c r="B40" s="13" t="s">
         <v>120</v>
       </c>
@@ -4689,7 +4128,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="41" ht="15" spans="2:7">
+    <row r="41" spans="2:7" ht="15" x14ac:dyDescent="0.15">
       <c r="B41" s="13" t="s">
         <v>123</v>
       </c>
@@ -4709,7 +4148,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="42" ht="15" spans="2:7">
+    <row r="42" spans="2:7" ht="15" x14ac:dyDescent="0.15">
       <c r="B42" s="13" t="s">
         <v>126</v>
       </c>
@@ -4729,7 +4168,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="43" ht="15" spans="2:7">
+    <row r="43" spans="2:7" ht="15" x14ac:dyDescent="0.15">
       <c r="B43" s="13" t="s">
         <v>129</v>
       </c>
@@ -4749,7 +4188,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="44" spans="2:7">
+    <row r="44" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B44" s="6" t="s">
         <v>132</v>
       </c>
@@ -4769,7 +4208,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="45" ht="15" spans="2:7">
+    <row r="45" spans="2:7" ht="15" x14ac:dyDescent="0.15">
       <c r="B45" s="13" t="s">
         <v>135</v>
       </c>
@@ -4789,7 +4228,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="46" ht="15" spans="2:7">
+    <row r="46" spans="2:7" ht="15" x14ac:dyDescent="0.15">
       <c r="B46" s="13" t="s">
         <v>138</v>
       </c>
@@ -4809,7 +4248,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="47" ht="15" spans="2:7">
+    <row r="47" spans="2:7" ht="15" x14ac:dyDescent="0.15">
       <c r="B47" s="13" t="s">
         <v>141</v>
       </c>
@@ -4829,7 +4268,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="48" ht="15" spans="2:7">
+    <row r="48" spans="2:7" ht="15" x14ac:dyDescent="0.15">
       <c r="B48" s="13" t="s">
         <v>144</v>
       </c>
@@ -4849,7 +4288,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="49" ht="15" spans="2:7">
+    <row r="49" spans="2:7" ht="15" x14ac:dyDescent="0.15">
       <c r="B49" s="13" t="s">
         <v>147</v>
       </c>
@@ -4869,7 +4308,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="50" ht="15" spans="2:7">
+    <row r="50" spans="2:7" ht="15" x14ac:dyDescent="0.15">
       <c r="B50" s="13" t="s">
         <v>150</v>
       </c>
@@ -4889,7 +4328,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="2:7">
+    <row r="51" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B51" s="6" t="s">
         <v>153</v>
       </c>
@@ -4909,7 +4348,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="52" ht="15" spans="2:7">
+    <row r="52" spans="2:7" ht="15" x14ac:dyDescent="0.15">
       <c r="B52" s="13" t="s">
         <v>156</v>
       </c>
@@ -4929,7 +4368,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="53" ht="15" spans="2:7">
+    <row r="53" spans="2:7" ht="15" x14ac:dyDescent="0.15">
       <c r="B53" s="13" t="s">
         <v>159</v>
       </c>
@@ -4949,7 +4388,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="54" ht="15" spans="2:7">
+    <row r="54" spans="2:7" ht="15" x14ac:dyDescent="0.15">
       <c r="B54" s="13" t="s">
         <v>162</v>
       </c>
@@ -4969,7 +4408,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="55" ht="15" spans="2:7">
+    <row r="55" spans="2:7" ht="15" x14ac:dyDescent="0.15">
       <c r="B55" s="13" t="s">
         <v>165</v>
       </c>
@@ -4989,7 +4428,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="56" ht="15" spans="2:7">
+    <row r="56" spans="2:7" ht="15" x14ac:dyDescent="0.15">
       <c r="B56" s="13" t="s">
         <v>168</v>
       </c>
@@ -5009,7 +4448,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="57" ht="15" spans="2:7">
+    <row r="57" spans="2:7" ht="15" x14ac:dyDescent="0.15">
       <c r="B57" s="13" t="s">
         <v>171</v>
       </c>
@@ -5029,7 +4468,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="58" ht="15" spans="2:7">
+    <row r="58" spans="2:7" ht="15" x14ac:dyDescent="0.15">
       <c r="B58" s="13" t="s">
         <v>174</v>
       </c>
@@ -5049,7 +4488,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="59" ht="15" spans="2:7">
+    <row r="59" spans="2:7" ht="15" x14ac:dyDescent="0.15">
       <c r="B59" s="13" t="s">
         <v>177</v>
       </c>
@@ -5069,7 +4508,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="60" ht="15" spans="2:7">
+    <row r="60" spans="2:7" ht="15" x14ac:dyDescent="0.15">
       <c r="B60" s="13" t="s">
         <v>180</v>
       </c>
@@ -5089,7 +4528,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="61" ht="15" spans="2:7">
+    <row r="61" spans="2:7" ht="15" x14ac:dyDescent="0.15">
       <c r="B61" s="13" t="s">
         <v>183</v>
       </c>
@@ -5109,7 +4548,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="62" ht="15" spans="2:7">
+    <row r="62" spans="2:7" ht="15" x14ac:dyDescent="0.15">
       <c r="B62" s="13" t="s">
         <v>186</v>
       </c>
@@ -5129,7 +4568,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="63" ht="15" spans="2:7">
+    <row r="63" spans="2:7" ht="15" x14ac:dyDescent="0.15">
       <c r="B63" s="13" t="s">
         <v>189</v>
       </c>
@@ -5149,7 +4588,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="64" ht="15" spans="2:7">
+    <row r="64" spans="2:7" ht="15" x14ac:dyDescent="0.15">
       <c r="B64" s="13" t="s">
         <v>192</v>
       </c>
@@ -5169,7 +4608,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="65" ht="15" spans="2:7">
+    <row r="65" spans="2:7" ht="15" x14ac:dyDescent="0.15">
       <c r="B65" s="13" t="s">
         <v>195</v>
       </c>
@@ -5189,7 +4628,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="66" ht="15" spans="2:7">
+    <row r="66" spans="2:7" ht="15" x14ac:dyDescent="0.15">
       <c r="B66" s="13" t="s">
         <v>198</v>
       </c>
@@ -5209,7 +4648,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="67" ht="15" spans="2:7">
+    <row r="67" spans="2:7" ht="15" x14ac:dyDescent="0.15">
       <c r="B67" s="13" t="s">
         <v>201</v>
       </c>
@@ -5229,7 +4668,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="68" ht="15" spans="2:7">
+    <row r="68" spans="2:7" ht="15" x14ac:dyDescent="0.15">
       <c r="B68" s="13" t="s">
         <v>204</v>
       </c>
@@ -5249,7 +4688,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="69" ht="15" spans="2:7">
+    <row r="69" spans="2:7" ht="15" x14ac:dyDescent="0.15">
       <c r="B69" s="13" t="s">
         <v>207</v>
       </c>
@@ -5269,7 +4708,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="70" ht="15" spans="2:7">
+    <row r="70" spans="2:7" ht="15" x14ac:dyDescent="0.15">
       <c r="B70" s="13" t="s">
         <v>210</v>
       </c>
@@ -5289,7 +4728,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="71" ht="15" spans="2:7">
+    <row r="71" spans="2:7" ht="15" x14ac:dyDescent="0.15">
       <c r="B71" s="13" t="s">
         <v>213</v>
       </c>
@@ -5309,7 +4748,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="72" ht="15" spans="2:7">
+    <row r="72" spans="2:7" ht="15" x14ac:dyDescent="0.15">
       <c r="B72" s="13" t="s">
         <v>216</v>
       </c>
@@ -5329,7 +4768,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="73" ht="15" spans="2:7">
+    <row r="73" spans="2:7" ht="15" x14ac:dyDescent="0.15">
       <c r="B73" s="13" t="s">
         <v>219</v>
       </c>
@@ -5349,7 +4788,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="74" ht="15" spans="2:7">
+    <row r="74" spans="2:7" ht="15" x14ac:dyDescent="0.15">
       <c r="B74" s="13" t="s">
         <v>222</v>
       </c>
@@ -5369,7 +4808,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="75" ht="15" spans="2:7">
+    <row r="75" spans="2:7" ht="15" x14ac:dyDescent="0.15">
       <c r="B75" s="13" t="s">
         <v>225</v>
       </c>
@@ -5389,7 +4828,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="76" ht="15" spans="2:7">
+    <row r="76" spans="2:7" ht="15" x14ac:dyDescent="0.15">
       <c r="B76" s="6" t="s">
         <v>228</v>
       </c>
@@ -5409,7 +4848,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="77" ht="15" spans="2:7">
+    <row r="77" spans="2:7" ht="15" x14ac:dyDescent="0.15">
       <c r="B77" s="13" t="s">
         <v>231</v>
       </c>
@@ -5429,7 +4868,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="78" ht="15" spans="2:7">
+    <row r="78" spans="2:7" ht="15" x14ac:dyDescent="0.15">
       <c r="B78" s="13" t="s">
         <v>234</v>
       </c>
@@ -5449,7 +4888,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="79" spans="2:7">
+    <row r="79" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B79" s="6" t="s">
         <v>237</v>
       </c>
@@ -5469,7 +4908,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="80" ht="15" spans="2:7">
+    <row r="80" spans="2:7" ht="15" x14ac:dyDescent="0.15">
       <c r="B80" s="13" t="s">
         <v>240</v>
       </c>
@@ -5489,7 +4928,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="81" ht="15" spans="2:7">
+    <row r="81" spans="2:7" ht="15" x14ac:dyDescent="0.15">
       <c r="B81" s="13" t="s">
         <v>243</v>
       </c>
@@ -5509,7 +4948,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="82" ht="15" spans="2:7">
+    <row r="82" spans="2:7" ht="15" x14ac:dyDescent="0.15">
       <c r="B82" s="13" t="s">
         <v>246</v>
       </c>
@@ -5529,7 +4968,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="83" ht="15" spans="2:7">
+    <row r="83" spans="2:7" ht="15" x14ac:dyDescent="0.15">
       <c r="B83" s="13" t="s">
         <v>249</v>
       </c>
@@ -5549,7 +4988,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="84" ht="15" spans="2:7">
+    <row r="84" spans="2:7" ht="15" x14ac:dyDescent="0.15">
       <c r="B84" s="13" t="s">
         <v>252</v>
       </c>
@@ -5569,7 +5008,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="85" ht="15" spans="2:7">
+    <row r="85" spans="2:7" ht="15" x14ac:dyDescent="0.15">
       <c r="B85" s="13" t="s">
         <v>255</v>
       </c>
@@ -5589,7 +5028,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="86" ht="15" spans="2:7">
+    <row r="86" spans="2:7" ht="15" x14ac:dyDescent="0.15">
       <c r="B86" s="13" t="s">
         <v>258</v>
       </c>
@@ -5609,7 +5048,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="87" spans="2:7">
+    <row r="87" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B87" s="6" t="s">
         <v>261</v>
       </c>
@@ -5629,7 +5068,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="88" ht="15" spans="2:7">
+    <row r="88" spans="2:7" ht="15" x14ac:dyDescent="0.15">
       <c r="B88" s="13" t="s">
         <v>264</v>
       </c>
@@ -5649,7 +5088,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="89" ht="15" spans="2:7">
+    <row r="89" spans="2:7" ht="15" x14ac:dyDescent="0.15">
       <c r="B89" s="13" t="s">
         <v>267</v>
       </c>
@@ -5669,7 +5108,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="90" ht="15" spans="2:7">
+    <row r="90" spans="2:7" ht="15" x14ac:dyDescent="0.15">
       <c r="B90" s="13" t="s">
         <v>270</v>
       </c>
@@ -5689,7 +5128,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="91" ht="15" spans="2:7">
+    <row r="91" spans="2:7" ht="15" x14ac:dyDescent="0.15">
       <c r="B91" s="13" t="s">
         <v>273</v>
       </c>
@@ -5709,7 +5148,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="92" ht="15" spans="2:7">
+    <row r="92" spans="2:7" ht="15" x14ac:dyDescent="0.15">
       <c r="B92" s="13" t="s">
         <v>276</v>
       </c>
@@ -5729,7 +5168,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="93" ht="15" spans="2:7">
+    <row r="93" spans="2:7" ht="15" x14ac:dyDescent="0.15">
       <c r="B93" s="13" t="s">
         <v>279</v>
       </c>
@@ -5749,7 +5188,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="94" ht="15" spans="2:7">
+    <row r="94" spans="2:7" ht="15" x14ac:dyDescent="0.15">
       <c r="B94" s="13" t="s">
         <v>282</v>
       </c>
@@ -5769,7 +5208,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="95" ht="15" spans="2:7">
+    <row r="95" spans="2:7" ht="15" x14ac:dyDescent="0.15">
       <c r="B95" s="13" t="s">
         <v>285</v>
       </c>
@@ -5789,7 +5228,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="96" ht="15" spans="2:7">
+    <row r="96" spans="2:7" ht="15" x14ac:dyDescent="0.15">
       <c r="B96" s="13" t="s">
         <v>288</v>
       </c>
@@ -5809,7 +5248,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="97" ht="15" spans="2:7">
+    <row r="97" spans="2:7" ht="15" x14ac:dyDescent="0.15">
       <c r="B97" s="13" t="s">
         <v>291</v>
       </c>
@@ -5829,7 +5268,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="98" ht="15" spans="2:7">
+    <row r="98" spans="2:7" ht="15" x14ac:dyDescent="0.15">
       <c r="B98" s="13" t="s">
         <v>294</v>
       </c>
@@ -5849,7 +5288,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="99" ht="15" spans="2:7">
+    <row r="99" spans="2:7" ht="15" x14ac:dyDescent="0.15">
       <c r="B99" s="13" t="s">
         <v>297</v>
       </c>
@@ -5869,7 +5308,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="100" ht="15" spans="2:7">
+    <row r="100" spans="2:7" ht="15" x14ac:dyDescent="0.15">
       <c r="B100" s="13" t="s">
         <v>300</v>
       </c>
@@ -5889,7 +5328,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="101" ht="15" spans="2:7">
+    <row r="101" spans="2:7" ht="15" x14ac:dyDescent="0.15">
       <c r="B101" s="13" t="s">
         <v>303</v>
       </c>
@@ -5909,7 +5348,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="102" ht="15" spans="2:7">
+    <row r="102" spans="2:7" ht="15" x14ac:dyDescent="0.15">
       <c r="B102" s="13" t="s">
         <v>306</v>
       </c>
@@ -5929,7 +5368,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="103" ht="15" spans="2:7">
+    <row r="103" spans="2:7" ht="15" x14ac:dyDescent="0.15">
       <c r="B103" s="13" t="s">
         <v>309</v>
       </c>
@@ -5949,7 +5388,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="104" ht="15" spans="2:7">
+    <row r="104" spans="2:7" ht="15" x14ac:dyDescent="0.15">
       <c r="B104" s="13" t="s">
         <v>312</v>
       </c>
@@ -5969,7 +5408,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="105" ht="15" spans="2:7">
+    <row r="105" spans="2:7" ht="15" x14ac:dyDescent="0.15">
       <c r="B105" s="13" t="s">
         <v>315</v>
       </c>
@@ -5989,7 +5428,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="106" ht="15" spans="2:7">
+    <row r="106" spans="2:7" ht="15" x14ac:dyDescent="0.15">
       <c r="B106" s="13" t="s">
         <v>318</v>
       </c>
@@ -6009,7 +5448,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="107" ht="15" spans="2:7">
+    <row r="107" spans="2:7" ht="15" x14ac:dyDescent="0.15">
       <c r="B107" s="13" t="s">
         <v>321</v>
       </c>
@@ -6029,7 +5468,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="108" ht="15" spans="2:7">
+    <row r="108" spans="2:7" ht="15" x14ac:dyDescent="0.15">
       <c r="B108" s="13" t="s">
         <v>324</v>
       </c>
@@ -6049,7 +5488,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="109" ht="15" spans="2:7">
+    <row r="109" spans="2:7" ht="15" x14ac:dyDescent="0.15">
       <c r="B109" s="13" t="s">
         <v>327</v>
       </c>
@@ -6069,7 +5508,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="110" ht="15" spans="2:7">
+    <row r="110" spans="2:7" ht="15" x14ac:dyDescent="0.15">
       <c r="B110" s="13" t="s">
         <v>330</v>
       </c>
@@ -6089,7 +5528,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="111" ht="15" spans="2:7">
+    <row r="111" spans="2:7" ht="15" x14ac:dyDescent="0.15">
       <c r="B111" s="13" t="s">
         <v>333</v>
       </c>
@@ -6109,7 +5548,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="112" ht="15" spans="2:7">
+    <row r="112" spans="2:7" ht="15" x14ac:dyDescent="0.15">
       <c r="B112" s="13" t="s">
         <v>336</v>
       </c>
@@ -6129,7 +5568,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="113" ht="15" spans="2:7">
+    <row r="113" spans="2:7" ht="15" x14ac:dyDescent="0.15">
       <c r="B113" s="14" t="s">
         <v>339</v>
       </c>
@@ -6149,7 +5588,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="114" spans="2:7">
+    <row r="114" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B114" s="6" t="s">
         <v>341</v>
       </c>
@@ -6169,7 +5608,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="115" ht="15" spans="2:7">
+    <row r="115" spans="2:7" ht="15" x14ac:dyDescent="0.15">
       <c r="B115" s="13" t="s">
         <v>344</v>
       </c>
@@ -6189,7 +5628,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="116" ht="15" spans="2:7">
+    <row r="116" spans="2:7" ht="15" x14ac:dyDescent="0.15">
       <c r="B116" s="13" t="s">
         <v>347</v>
       </c>
@@ -6209,7 +5648,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="117" ht="15" spans="2:7">
+    <row r="117" spans="2:7" ht="15" x14ac:dyDescent="0.15">
       <c r="B117" s="13" t="s">
         <v>350</v>
       </c>
@@ -6229,7 +5668,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="118" ht="15" spans="2:7">
+    <row r="118" spans="2:7" ht="15" x14ac:dyDescent="0.15">
       <c r="B118" s="13" t="s">
         <v>353</v>
       </c>
@@ -6249,7 +5688,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="119" ht="15" spans="2:7">
+    <row r="119" spans="2:7" ht="15" x14ac:dyDescent="0.15">
       <c r="B119" s="13" t="s">
         <v>356</v>
       </c>
@@ -6269,7 +5708,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="120" ht="15" spans="2:7">
+    <row r="120" spans="2:7" ht="15" x14ac:dyDescent="0.15">
       <c r="B120" s="13" t="s">
         <v>359</v>
       </c>
@@ -6289,7 +5728,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="121" ht="15" spans="2:7">
+    <row r="121" spans="2:7" ht="15" x14ac:dyDescent="0.15">
       <c r="B121" s="13" t="s">
         <v>362</v>
       </c>
@@ -6309,7 +5748,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="122" ht="15" spans="2:7">
+    <row r="122" spans="2:7" ht="15" x14ac:dyDescent="0.15">
       <c r="B122" s="13" t="s">
         <v>365</v>
       </c>
@@ -6329,7 +5768,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="123" ht="15" spans="2:7">
+    <row r="123" spans="2:7" ht="15" x14ac:dyDescent="0.15">
       <c r="B123" s="13" t="s">
         <v>368</v>
       </c>
@@ -6349,7 +5788,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="124" ht="15" spans="2:7">
+    <row r="124" spans="2:7" ht="15" x14ac:dyDescent="0.15">
       <c r="B124" s="13" t="s">
         <v>371</v>
       </c>
@@ -6369,7 +5808,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="125" ht="15" spans="2:7">
+    <row r="125" spans="2:7" ht="15" x14ac:dyDescent="0.15">
       <c r="B125" s="13" t="s">
         <v>374</v>
       </c>
@@ -6389,7 +5828,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="126" ht="15" spans="2:7">
+    <row r="126" spans="2:7" ht="15" x14ac:dyDescent="0.15">
       <c r="B126" s="13" t="s">
         <v>377</v>
       </c>
@@ -6409,7 +5848,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="127" ht="15" spans="2:7">
+    <row r="127" spans="2:7" ht="15" x14ac:dyDescent="0.15">
       <c r="B127" s="13" t="s">
         <v>380</v>
       </c>
@@ -6429,7 +5868,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="128" ht="15" spans="2:7">
+    <row r="128" spans="2:7" ht="15" x14ac:dyDescent="0.15">
       <c r="B128" s="13" t="s">
         <v>383</v>
       </c>
@@ -6449,7 +5888,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="129" ht="15" spans="2:7">
+    <row r="129" spans="2:7" ht="15" x14ac:dyDescent="0.15">
       <c r="B129" s="13" t="s">
         <v>386</v>
       </c>
@@ -6469,7 +5908,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="130" ht="15" spans="2:7">
+    <row r="130" spans="2:7" ht="15" x14ac:dyDescent="0.15">
       <c r="B130" s="13" t="s">
         <v>389</v>
       </c>
@@ -6489,7 +5928,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="131" ht="15" spans="2:7">
+    <row r="131" spans="2:7" ht="15" x14ac:dyDescent="0.15">
       <c r="B131" s="13" t="s">
         <v>392</v>
       </c>
@@ -6509,7 +5948,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="132" ht="15" spans="2:7">
+    <row r="132" spans="2:7" ht="15" x14ac:dyDescent="0.15">
       <c r="B132" s="13" t="s">
         <v>395</v>
       </c>
@@ -6529,7 +5968,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="133" ht="15" spans="2:7">
+    <row r="133" spans="2:7" ht="15" x14ac:dyDescent="0.15">
       <c r="B133" s="13" t="s">
         <v>398</v>
       </c>
@@ -6549,7 +5988,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="134" ht="15" spans="2:7">
+    <row r="134" spans="2:7" ht="15" x14ac:dyDescent="0.15">
       <c r="B134" s="13" t="s">
         <v>401</v>
       </c>
@@ -6569,7 +6008,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="135" ht="15" spans="2:7">
+    <row r="135" spans="2:7" ht="15" x14ac:dyDescent="0.15">
       <c r="B135" s="13" t="s">
         <v>403</v>
       </c>
@@ -6589,7 +6028,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="136" ht="15" spans="2:7">
+    <row r="136" spans="2:7" ht="15" x14ac:dyDescent="0.15">
       <c r="B136" s="13" t="s">
         <v>406</v>
       </c>
@@ -6609,7 +6048,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="137" ht="15" spans="2:7">
+    <row r="137" spans="2:7" ht="15" x14ac:dyDescent="0.15">
       <c r="B137" s="13" t="s">
         <v>409</v>
       </c>
@@ -6629,7 +6068,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="138" ht="15" spans="2:7">
+    <row r="138" spans="2:7" ht="15" x14ac:dyDescent="0.15">
       <c r="B138" s="13" t="s">
         <v>412</v>
       </c>
@@ -6649,7 +6088,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="139" ht="15" spans="2:7">
+    <row r="139" spans="2:7" ht="15" x14ac:dyDescent="0.15">
       <c r="B139" s="13" t="s">
         <v>415</v>
       </c>
@@ -6669,7 +6108,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="140" ht="15" spans="2:7">
+    <row r="140" spans="2:7" ht="15" x14ac:dyDescent="0.15">
       <c r="B140" s="13" t="s">
         <v>418</v>
       </c>
@@ -6689,7 +6128,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="141" ht="15" spans="2:7">
+    <row r="141" spans="2:7" ht="15" x14ac:dyDescent="0.15">
       <c r="B141" s="13" t="s">
         <v>421</v>
       </c>
@@ -6709,7 +6148,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="142" spans="2:6">
+    <row r="142" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B142" s="6" t="s">
         <v>424</v>
       </c>
@@ -6726,7 +6165,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="143" spans="2:6">
+    <row r="143" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B143" s="6" t="s">
         <v>427</v>
       </c>
@@ -6743,7 +6182,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="144" spans="2:6">
+    <row r="144" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B144" s="6" t="s">
         <v>430</v>
       </c>
@@ -6760,7 +6199,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="145" s="4" customFormat="1" spans="2:6">
+    <row r="145" spans="2:7" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B145" s="18" t="s">
         <v>433</v>
       </c>
@@ -6777,7 +6216,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="146" spans="2:6">
+    <row r="146" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B146" s="6" t="s">
         <v>436</v>
       </c>
@@ -6794,7 +6233,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="147" spans="2:6">
+    <row r="147" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B147" s="6" t="s">
         <v>439</v>
       </c>
@@ -6811,7 +6250,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="148" spans="2:6">
+    <row r="148" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B148" s="6" t="s">
         <v>442</v>
       </c>
@@ -6828,7 +6267,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="149" spans="2:6">
+    <row r="149" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B149" s="6" t="s">
         <v>445</v>
       </c>
@@ -6845,7 +6284,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="150" ht="15" spans="2:7">
+    <row r="150" spans="2:7" ht="15" x14ac:dyDescent="0.15">
       <c r="B150" s="13" t="s">
         <v>448</v>
       </c>
@@ -6861,7 +6300,7 @@
       <c r="F150" s="15"/>
       <c r="G150" s="9"/>
     </row>
-    <row r="151" ht="15" spans="2:7">
+    <row r="151" spans="2:7" ht="15" x14ac:dyDescent="0.15">
       <c r="B151" s="13" t="s">
         <v>450</v>
       </c>
@@ -6877,7 +6316,7 @@
       <c r="F151" s="15"/>
       <c r="G151" s="9"/>
     </row>
-    <row r="152" ht="15" spans="2:7">
+    <row r="152" spans="2:7" ht="15" x14ac:dyDescent="0.15">
       <c r="B152" s="13" t="s">
         <v>452</v>
       </c>
@@ -6893,7 +6332,7 @@
       <c r="F152" s="15"/>
       <c r="G152" s="9"/>
     </row>
-    <row r="153" ht="15" spans="2:7">
+    <row r="153" spans="2:7" ht="15" x14ac:dyDescent="0.15">
       <c r="B153" s="13" t="s">
         <v>454</v>
       </c>
@@ -6909,7 +6348,7 @@
       <c r="F153" s="15"/>
       <c r="G153" s="9"/>
     </row>
-    <row r="154" ht="15" spans="2:7">
+    <row r="154" spans="2:7" ht="15" x14ac:dyDescent="0.15">
       <c r="B154" s="13" t="s">
         <v>456</v>
       </c>
@@ -6925,7 +6364,7 @@
       <c r="F154" s="15"/>
       <c r="G154" s="9"/>
     </row>
-    <row r="155" ht="15" spans="2:7">
+    <row r="155" spans="2:7" ht="15" x14ac:dyDescent="0.15">
       <c r="B155" s="13" t="s">
         <v>458</v>
       </c>
@@ -6941,576 +6380,623 @@
       <c r="F155" s="15"/>
       <c r="G155" s="9"/>
     </row>
-    <row r="156" spans="2:7">
-      <c r="B156" s="34" t="s">
+    <row r="156" spans="2:7" ht="15" x14ac:dyDescent="0.15">
+      <c r="B156" s="13" t="s">
+        <v>548</v>
+      </c>
+      <c r="C156" s="33">
+        <v>153</v>
+      </c>
+      <c r="D156" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="E156" s="39" t="s">
+        <v>549</v>
+      </c>
+      <c r="F156" s="15"/>
+      <c r="G156" s="9"/>
+    </row>
+    <row r="157" spans="2:7" ht="15" x14ac:dyDescent="0.15">
+      <c r="B157" s="13" t="s">
+        <v>552</v>
+      </c>
+      <c r="C157" s="33">
+        <v>154</v>
+      </c>
+      <c r="D157" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="E157" s="14" t="s">
+        <v>550</v>
+      </c>
+      <c r="F157" s="15"/>
+      <c r="G157" s="9"/>
+    </row>
+    <row r="158" spans="2:7" ht="15" x14ac:dyDescent="0.15">
+      <c r="B158" s="13" t="s">
+        <v>553</v>
+      </c>
+      <c r="C158" s="33">
+        <v>155</v>
+      </c>
+      <c r="D158" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="E158" s="14" t="s">
+        <v>551</v>
+      </c>
+      <c r="F158" s="15"/>
+      <c r="G158" s="9"/>
+    </row>
+    <row r="159" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B159" s="34" t="s">
         <v>460</v>
       </c>
-      <c r="C156" s="5">
+      <c r="C159" s="5">
         <v>10000</v>
       </c>
-      <c r="D156" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E156" s="34" t="s">
+      <c r="D159" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E159" s="34" t="s">
         <v>461</v>
       </c>
-      <c r="F156" s="34" t="s">
+      <c r="F159" s="34" t="s">
         <v>462</v>
       </c>
-      <c r="G156" s="9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="157" spans="2:7">
-      <c r="B157" s="34" t="s">
+      <c r="G159" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="160" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B160" s="34" t="s">
         <v>463</v>
       </c>
-      <c r="C157" s="5">
+      <c r="C160" s="5">
         <v>10001</v>
       </c>
-      <c r="D157" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E157" s="34" t="s">
+      <c r="D160" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E160" s="34" t="s">
         <v>464</v>
       </c>
-      <c r="F157" s="34" t="s">
+      <c r="F160" s="34" t="s">
         <v>465</v>
       </c>
-      <c r="G157" s="9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="158" spans="2:7">
-      <c r="B158" s="34" t="s">
+      <c r="G160" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="161" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B161" s="34" t="s">
         <v>466</v>
       </c>
-      <c r="C158" s="5">
+      <c r="C161" s="5">
         <v>10002</v>
       </c>
-      <c r="D158" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E158" s="16" t="s">
+      <c r="D161" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E161" s="16" t="s">
         <v>467</v>
       </c>
-      <c r="F158" s="35" t="s">
+      <c r="F161" s="35" t="s">
         <v>468</v>
       </c>
-      <c r="G158" s="9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="159" spans="2:7">
-      <c r="B159" s="34" t="s">
+      <c r="G161" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="162" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B162" s="34" t="s">
         <v>469</v>
       </c>
-      <c r="C159" s="5">
+      <c r="C162" s="5">
         <v>10003</v>
       </c>
-      <c r="D159" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E159" s="16" t="s">
+      <c r="D162" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E162" s="16" t="s">
         <v>241</v>
       </c>
-      <c r="F159" s="34" t="s">
+      <c r="F162" s="34" t="s">
         <v>470</v>
       </c>
-      <c r="G159" s="9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="160" spans="2:7">
-      <c r="B160" s="34" t="s">
+      <c r="G162" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="163" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B163" s="34" t="s">
         <v>471</v>
       </c>
-      <c r="C160" s="5">
+      <c r="C163" s="5">
         <v>10004</v>
       </c>
-      <c r="D160" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E160" s="34" t="s">
+      <c r="D163" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E163" s="34" t="s">
         <v>472</v>
       </c>
-      <c r="F160" s="34" t="s">
+      <c r="F163" s="34" t="s">
         <v>473</v>
       </c>
-      <c r="G160" s="9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="161" spans="2:7">
-      <c r="B161" s="34" t="s">
+      <c r="G163" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="164" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B164" s="34" t="s">
         <v>474</v>
       </c>
-      <c r="C161" s="5">
+      <c r="C164" s="5">
         <v>10005</v>
       </c>
-      <c r="D161" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E161" s="34" t="s">
+      <c r="D164" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E164" s="34" t="s">
         <v>475</v>
       </c>
-      <c r="F161" s="34" t="s">
+      <c r="F164" s="34" t="s">
         <v>476</v>
       </c>
-      <c r="G161" s="9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="162" spans="2:7">
-      <c r="B162" s="34" t="s">
+      <c r="G164" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="165" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B165" s="34" t="s">
         <v>477</v>
       </c>
-      <c r="C162" s="5">
+      <c r="C165" s="5">
         <v>10006</v>
       </c>
-      <c r="D162" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E162" s="16" t="s">
+      <c r="D165" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E165" s="16" t="s">
         <v>478</v>
       </c>
-      <c r="F162" s="34" t="s">
+      <c r="F165" s="34" t="s">
         <v>479</v>
       </c>
-      <c r="G162" s="9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="163" spans="2:7">
-      <c r="B163" s="34" t="s">
+      <c r="G165" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="166" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B166" s="34" t="s">
         <v>480</v>
       </c>
-      <c r="C163" s="5">
+      <c r="C166" s="5">
         <v>10007</v>
       </c>
-      <c r="D163" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E163" s="34" t="s">
+      <c r="D166" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E166" s="34" t="s">
         <v>481</v>
       </c>
-      <c r="F163" s="34" t="s">
+      <c r="F166" s="34" t="s">
         <v>482</v>
       </c>
-      <c r="G163" s="9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="164" spans="2:7">
-      <c r="B164" s="34" t="s">
+      <c r="G166" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="167" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B167" s="34" t="s">
         <v>483</v>
       </c>
-      <c r="C164" s="5">
+      <c r="C167" s="5">
         <v>10008</v>
       </c>
-      <c r="D164" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E164" s="34" t="s">
+      <c r="D167" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E167" s="34" t="s">
         <v>484</v>
       </c>
-      <c r="F164" s="34" t="s">
+      <c r="F167" s="34" t="s">
         <v>485</v>
       </c>
-      <c r="G164" s="9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="165" spans="2:7">
-      <c r="B165" s="34" t="s">
+      <c r="G167" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="168" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B168" s="34" t="s">
         <v>486</v>
       </c>
-      <c r="C165" s="5">
+      <c r="C168" s="5">
         <v>10009</v>
       </c>
-      <c r="D165" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E165" s="34" t="s">
+      <c r="D168" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E168" s="34" t="s">
         <v>487</v>
       </c>
-      <c r="F165" s="34" t="s">
+      <c r="F168" s="34" t="s">
         <v>488</v>
       </c>
-      <c r="G165" s="9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="166" spans="2:7">
-      <c r="B166" s="34" t="s">
+      <c r="G168" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="169" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B169" s="34" t="s">
         <v>489</v>
       </c>
-      <c r="C166" s="5">
+      <c r="C169" s="5">
         <v>10010</v>
       </c>
-      <c r="D166" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E166" s="16" t="s">
+      <c r="D169" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E169" s="16" t="s">
         <v>490</v>
       </c>
-      <c r="F166" s="34" t="s">
+      <c r="F169" s="34" t="s">
         <v>491</v>
       </c>
-      <c r="G166" s="9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="167" spans="2:7">
-      <c r="B167" s="34" t="s">
+      <c r="G169" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="170" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B170" s="34" t="s">
         <v>492</v>
       </c>
-      <c r="C167" s="5">
+      <c r="C170" s="5">
         <v>10011</v>
       </c>
-      <c r="D167" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E167" s="17" t="s">
+      <c r="D170" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E170" s="17" t="s">
         <v>493</v>
       </c>
-      <c r="F167" s="34" t="s">
+      <c r="F170" s="34" t="s">
         <v>494</v>
       </c>
-      <c r="G167" s="9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="168" spans="2:7">
-      <c r="B168" s="34" t="s">
+      <c r="G170" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="171" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B171" s="34" t="s">
         <v>495</v>
       </c>
-      <c r="C168" s="5">
+      <c r="C171" s="5">
         <v>10012</v>
       </c>
-      <c r="D168" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E168" s="34" t="s">
+      <c r="D171" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E171" s="34" t="s">
         <v>496</v>
       </c>
-      <c r="F168" s="34" t="s">
+      <c r="F171" s="34" t="s">
         <v>497</v>
       </c>
-      <c r="G168" s="9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="169" spans="2:7">
-      <c r="B169" s="34" t="s">
+      <c r="G171" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="172" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B172" s="34" t="s">
         <v>498</v>
       </c>
-      <c r="C169" s="5">
+      <c r="C172" s="5">
         <v>10013</v>
       </c>
-      <c r="D169" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E169" s="34" t="s">
+      <c r="D172" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E172" s="34" t="s">
         <v>499</v>
       </c>
-      <c r="F169" s="34" t="s">
+      <c r="F172" s="34" t="s">
         <v>500</v>
       </c>
-      <c r="G169" s="9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="170" spans="2:7">
-      <c r="B170" s="34" t="s">
+      <c r="G172" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="173" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B173" s="34" t="s">
         <v>501</v>
       </c>
-      <c r="C170" s="5">
+      <c r="C173" s="5">
         <v>10014</v>
       </c>
-      <c r="D170" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E170" s="34" t="s">
+      <c r="D173" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E173" s="34" t="s">
         <v>502</v>
       </c>
-      <c r="F170" s="34" t="s">
+      <c r="F173" s="34" t="s">
         <v>503</v>
       </c>
-      <c r="G170" s="9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="171" spans="2:7">
-      <c r="B171" s="34" t="s">
+      <c r="G173" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="174" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B174" s="34" t="s">
         <v>504</v>
       </c>
-      <c r="C171" s="5">
+      <c r="C174" s="5">
         <v>10015</v>
       </c>
-      <c r="D171" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E171" s="34" t="s">
+      <c r="D174" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E174" s="34" t="s">
         <v>505</v>
       </c>
-      <c r="F171" s="34" t="s">
+      <c r="F174" s="34" t="s">
         <v>506</v>
       </c>
-      <c r="G171" s="9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="172" spans="2:7">
-      <c r="B172" s="34" t="s">
+      <c r="G174" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="175" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B175" s="34" t="s">
         <v>507</v>
       </c>
-      <c r="C172" s="5">
+      <c r="C175" s="5">
         <v>10016</v>
       </c>
-      <c r="D172" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E172" s="34" t="s">
+      <c r="D175" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E175" s="34" t="s">
         <v>508</v>
       </c>
-      <c r="F172" s="34" t="s">
+      <c r="F175" s="34" t="s">
         <v>509</v>
       </c>
-      <c r="G172" s="9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="173" spans="2:7">
-      <c r="B173" s="34" t="s">
+      <c r="G175" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="176" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B176" s="34" t="s">
         <v>510</v>
       </c>
-      <c r="C173" s="5">
+      <c r="C176" s="5">
         <v>10017</v>
       </c>
-      <c r="D173" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E173" s="34" t="s">
+      <c r="D176" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E176" s="34" t="s">
         <v>511</v>
       </c>
-      <c r="F173" s="34" t="s">
+      <c r="F176" s="34" t="s">
         <v>512</v>
       </c>
-      <c r="G173" s="9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="174" spans="2:6">
-      <c r="B174" s="6" t="s">
+      <c r="G176" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="177" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B177" s="6" t="s">
         <v>513</v>
       </c>
-      <c r="C174" s="5">
+      <c r="C177" s="5">
         <v>10018</v>
       </c>
-      <c r="D174" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E174" s="5" t="s">
+      <c r="D177" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E177" s="5" t="s">
         <v>514</v>
       </c>
-      <c r="F174" t="s">
+      <c r="F177" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="175" spans="2:6">
-      <c r="B175" s="6" t="s">
+    <row r="178" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B178" s="6" t="s">
         <v>516</v>
       </c>
-      <c r="C175" s="5">
+      <c r="C178" s="5">
         <v>10019</v>
       </c>
-      <c r="D175" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E175" s="17" t="s">
+      <c r="D178" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E178" s="17" t="s">
         <v>517</v>
       </c>
-      <c r="F175" t="s">
+      <c r="F178" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="176" ht="15.75" customHeight="1" spans="2:6">
-      <c r="B176" s="6" t="s">
+    <row r="179" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B179" s="6" t="s">
         <v>519</v>
       </c>
-      <c r="C176" s="5">
+      <c r="C179" s="5">
         <v>10020</v>
       </c>
-      <c r="D176" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E176" s="17" t="s">
+      <c r="D179" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E179" s="17" t="s">
         <v>520</v>
       </c>
-      <c r="F176" s="24" t="s">
+      <c r="F179" s="24" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="177" spans="2:6">
-      <c r="B177" s="6" t="s">
+    <row r="180" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B180" s="6" t="s">
         <v>522</v>
       </c>
-      <c r="C177" s="5">
+      <c r="C180" s="5">
         <v>10021</v>
       </c>
-      <c r="D177" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E177" s="17" t="s">
+      <c r="D180" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E180" s="17" t="s">
         <v>523</v>
       </c>
-      <c r="F177" s="24" t="s">
+      <c r="F180" s="24" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="178" spans="2:6">
-      <c r="B178" s="6" t="s">
+    <row r="181" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B181" s="6" t="s">
         <v>525</v>
       </c>
-      <c r="C178" s="5">
+      <c r="C181" s="5">
         <v>10022</v>
       </c>
-      <c r="D178" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E178" s="17" t="s">
+      <c r="D181" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E181" s="17" t="s">
         <v>526</v>
       </c>
-      <c r="F178" s="24" t="s">
+      <c r="F181" s="24" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="179" spans="2:6">
-      <c r="B179" s="6" t="s">
+    <row r="182" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B182" s="6" t="s">
         <v>528</v>
       </c>
-      <c r="C179" s="5">
+      <c r="C182" s="5">
         <v>10023</v>
       </c>
-      <c r="D179" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E179" s="17" t="s">
+      <c r="D182" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E182" s="17" t="s">
         <v>529</v>
       </c>
-      <c r="F179" s="24" t="s">
+      <c r="F182" s="24" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="180" spans="2:6">
-      <c r="B180" s="6" t="s">
+    <row r="183" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B183" s="6" t="s">
         <v>531</v>
       </c>
-      <c r="C180" s="5">
+      <c r="C183" s="5">
         <v>10024</v>
       </c>
-      <c r="D180" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E180" s="17" t="s">
+      <c r="D183" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E183" s="17" t="s">
         <v>532</v>
       </c>
-      <c r="F180" s="24" t="s">
+      <c r="F183" s="24" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="181" ht="15.75" customHeight="1" spans="2:6">
-      <c r="B181" s="36" t="s">
+    <row r="184" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B184" s="36" t="s">
         <v>534</v>
       </c>
-      <c r="C181" s="5">
+      <c r="C184" s="5">
         <v>10025</v>
       </c>
-      <c r="D181" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E181" s="37" t="s">
+      <c r="D184" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E184" s="37" t="s">
         <v>220</v>
       </c>
-      <c r="F181" s="38" t="s">
+      <c r="F184" s="38" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="182" spans="2:6">
-      <c r="B182" s="6" t="s">
+    <row r="185" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B185" s="6" t="s">
         <v>536</v>
       </c>
-      <c r="C182" s="5">
+      <c r="C185" s="5">
         <v>10026</v>
       </c>
-      <c r="D182" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E182" s="16" t="s">
+      <c r="D185" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E185" s="16" t="s">
         <v>537</v>
       </c>
-      <c r="F182" t="s">
+      <c r="F185" t="s">
         <v>538</v>
       </c>
     </row>
-    <row r="183" spans="2:6">
-      <c r="B183" s="6" t="s">
+    <row r="186" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B186" s="6" t="s">
         <v>539</v>
       </c>
-      <c r="C183" s="5">
+      <c r="C186" s="5">
         <v>10027</v>
       </c>
-      <c r="D183" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E183" s="16" t="s">
+      <c r="D186" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E186" s="16" t="s">
         <v>540</v>
       </c>
-      <c r="F183" t="s">
+      <c r="F186" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="184" spans="2:6">
-      <c r="B184" s="6" t="s">
+    <row r="187" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B187" s="6" t="s">
         <v>542</v>
       </c>
-      <c r="C184" s="5">
+      <c r="C187" s="5">
         <v>10028</v>
       </c>
-      <c r="D184" t="s">
-        <v>13</v>
-      </c>
-      <c r="E184" s="5" t="s">
+      <c r="D187" t="s">
+        <v>13</v>
+      </c>
+      <c r="E187" s="5" t="s">
         <v>543</v>
       </c>
-      <c r="F184" t="s">
+      <c r="F187" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="185" spans="2:6">
-      <c r="B185" s="6" t="s">
+    <row r="188" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B188" s="6" t="s">
         <v>545</v>
       </c>
-      <c r="C185" s="5">
+      <c r="C188" s="5">
         <v>10029</v>
       </c>
-      <c r="D185" t="s">
-        <v>13</v>
-      </c>
-      <c r="E185" s="5" t="s">
+      <c r="D188" t="s">
+        <v>13</v>
+      </c>
+      <c r="E188" s="5" t="s">
         <v>546</v>
       </c>
-      <c r="F185" t="s">
+      <c r="F188" t="s">
         <v>547</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="F1:F185">
-    <extLst/>
-  </autoFilter>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <autoFilter ref="F1:F188"/>
+  <phoneticPr fontId="14" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>

--- a/Resource/excel/display.xlsx
+++ b/Resource/excel/display.xlsx
@@ -5,20 +5,20 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Work\Server\Resource\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Work\Server\Resource\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="14070" tabRatio="552"/>
   </bookViews>
   <sheets>
-    <sheet name="enter" sheetId="1" r:id="rId1"/>
+    <sheet name="display" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">enter!$F$1:$F$188</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">display!$F$1:$F$188</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
-  <calcPr calcId="144525" concurrentCalc="0"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
